--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1316.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1316.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.008278356394469</v>
+        <v>1.027798652648926</v>
       </c>
       <c r="B1">
-        <v>2.377067187645244</v>
+        <v>1.907064914703369</v>
       </c>
       <c r="C1">
-        <v>5.233667362858735</v>
+        <v>7.789341449737549</v>
       </c>
       <c r="D1">
-        <v>2.361475334205313</v>
+        <v>2.075407028198242</v>
       </c>
       <c r="E1">
-        <v>1.265964321683016</v>
+        <v>0.552586555480957</v>
       </c>
     </row>
   </sheetData>
